--- a/MATLAB/model_comparison_analysis/data/AbweichungInDaten_2019_07_data.xlsx
+++ b/MATLAB/model_comparison_analysis/data/AbweichungInDaten_2019_07_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GIT\HematopoiesisModelComparison\MATLAB\model_comparison_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\MATLAB\HematopoiesisModelComparison_restructured\MATLAB\model_comparison_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1708A7FD-5FA4-47A7-80C6-354DC161192F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8040F89D-1F0C-41FA-AE92-FEA74ED419D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2028" yWindow="1968" windowWidth="22344" windowHeight="12660" xr2:uid="{293D8DF3-8EF2-46DB-B5CF-6BF9E4220570}"/>
+    <workbookView xWindow="2028" yWindow="1968" windowWidth="22344" windowHeight="12660" xr2:uid="{4FE8944F-795A-44BE-B23C-171DDADE30D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>fileName</t>
   </si>
@@ -115,27 +115,6 @@
     <t>20170823H311bT7.fcs</t>
   </si>
   <si>
-    <t>20171107H348T1.fcs</t>
-  </si>
-  <si>
-    <t>20171107H348T2.fcs</t>
-  </si>
-  <si>
-    <t>20171107H348T3.fcs</t>
-  </si>
-  <si>
-    <t>20171107H348T4.fcs</t>
-  </si>
-  <si>
-    <t>20171107H348T5.fcs</t>
-  </si>
-  <si>
-    <t>20171107H348T6.fcs</t>
-  </si>
-  <si>
-    <t>20171107H348T7.fcs</t>
-  </si>
-  <si>
     <t>20171109H353T1.fcs</t>
   </si>
   <si>
@@ -190,15 +169,6 @@
     <t>20180124H380T7.fcs</t>
   </si>
   <si>
-    <t>20180306H391T1.fcs</t>
-  </si>
-  <si>
-    <t>20180306H391T4.fcs</t>
-  </si>
-  <si>
-    <t>20180306H391T7.fcs</t>
-  </si>
-  <si>
     <t>20180307H370T1.fcs</t>
   </si>
   <si>
@@ -208,36 +178,6 @@
     <t>20180307H370T7.fcs</t>
   </si>
   <si>
-    <t>20180816H391T1.fcs</t>
-  </si>
-  <si>
-    <t>20180816H391T4.fcs</t>
-  </si>
-  <si>
-    <t>20180816H391T5.fcs</t>
-  </si>
-  <si>
-    <t>20180816H391T6.fcs</t>
-  </si>
-  <si>
-    <t>20180816H391T7.fcs</t>
-  </si>
-  <si>
-    <t>20190227H508T1.fcs</t>
-  </si>
-  <si>
-    <t>20190227H508T3.fcs</t>
-  </si>
-  <si>
-    <t>20190227H508T5.fcs</t>
-  </si>
-  <si>
-    <t>20190227H508T6.fcs</t>
-  </si>
-  <si>
-    <t>20190227H508T7.fcs</t>
-  </si>
-  <si>
     <t>20190227H547T3.fcs</t>
   </si>
   <si>
@@ -250,24 +190,6 @@
     <t>20190227H547T7.fcs</t>
   </si>
   <si>
-    <t>20181024H345T1.fcs</t>
-  </si>
-  <si>
-    <t>20181024H345T2.fcs</t>
-  </si>
-  <si>
-    <t>20181024H345T3.fcs</t>
-  </si>
-  <si>
-    <t>20181024H345T4.fcs</t>
-  </si>
-  <si>
-    <t>20181024H345T6.fcs</t>
-  </si>
-  <si>
-    <t>20181024H345T7.fcs</t>
-  </si>
-  <si>
     <t>20181115H482T1.fcs</t>
   </si>
   <si>
@@ -289,24 +211,6 @@
     <t>20181115H482T7.fcs</t>
   </si>
   <si>
-    <t>20181214H519T1.fcs</t>
-  </si>
-  <si>
-    <t>20181214H519T3.fcs</t>
-  </si>
-  <si>
-    <t>20181214H519T4.fcs</t>
-  </si>
-  <si>
-    <t>20181214H519T5.fcs</t>
-  </si>
-  <si>
-    <t>20181214H519T6.fcs</t>
-  </si>
-  <si>
-    <t>20181214H519T7.fcs</t>
-  </si>
-  <si>
     <t>20190122H522T1.fcs</t>
   </si>
   <si>
@@ -328,48 +232,6 @@
     <t>20190122H522T7.fcs</t>
   </si>
   <si>
-    <t>20190122H500T1.fcs</t>
-  </si>
-  <si>
-    <t>20190122H500T2.fcs</t>
-  </si>
-  <si>
-    <t>20190122H500T4.fcs</t>
-  </si>
-  <si>
-    <t>20190122H500T5.fcs</t>
-  </si>
-  <si>
-    <t>20190122H500T6.fcs</t>
-  </si>
-  <si>
-    <t>20190122H500T7.fcs</t>
-  </si>
-  <si>
-    <t>20190314H450T1.fcs</t>
-  </si>
-  <si>
-    <t>20190314H450T3.fcs</t>
-  </si>
-  <si>
-    <t>20190314H450T5.fcs</t>
-  </si>
-  <si>
-    <t>20190314H450T7.fcs</t>
-  </si>
-  <si>
-    <t>20190314H552T1.fcs</t>
-  </si>
-  <si>
-    <t>20190314H552T3.fcs</t>
-  </si>
-  <si>
-    <t>20190314H552T5.fcs</t>
-  </si>
-  <si>
-    <t>20190314H552T7.fcs</t>
-  </si>
-  <si>
     <t>20190321H439T1.fcs</t>
   </si>
   <si>
@@ -412,48 +274,6 @@
     <t>20190321H559T7.fcs</t>
   </si>
   <si>
-    <t>20190321H560T1.fcs</t>
-  </si>
-  <si>
-    <t>20190321H560T2.fcs</t>
-  </si>
-  <si>
-    <t>20190321H560T3.fcs</t>
-  </si>
-  <si>
-    <t>20190321H560T4.fcs</t>
-  </si>
-  <si>
-    <t>20190321H560T5.fcs</t>
-  </si>
-  <si>
-    <t>20190321H560T6.fcs</t>
-  </si>
-  <si>
-    <t>20190321H560T7.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T1.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T2.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T3.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T4.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T5.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T6.fcs</t>
-  </si>
-  <si>
-    <t>20190321H561T7.fcs</t>
-  </si>
-  <si>
     <t>HSCtotal_minus_sumOf_gi_HSC</t>
   </si>
   <si>
@@ -470,9 +290,6 @@
   </si>
   <si>
     <t>MEPtotal_minus_sumOf_gi_MEP</t>
-  </si>
-  <si>
-    <t>maturetotal_minus_sumOf_gi_mature</t>
   </si>
 </sst>
 </file>
@@ -823,8 +640,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3285826D-F59A-4531-A4E2-03A356F4C5E9}">
-  <dimension ref="A1:H139"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4BA2AD-AFB5-479C-84D0-CC74B420A999}">
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -837,36 +654,32 @@
     <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="28.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>142</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>143</v>
+        <v>83</v>
       </c>
       <c r="G1" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -888,11 +701,8 @@
       <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -914,11 +724,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -940,11 +747,8 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -966,11 +770,8 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -992,11 +793,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1018,11 +816,8 @@
       <c r="G7">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1044,11 +839,8 @@
       <c r="G8">
         <v>0</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1070,11 +862,8 @@
       <c r="G9">
         <v>0</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1096,11 +885,8 @@
       <c r="G10">
         <v>0</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1122,11 +908,8 @@
       <c r="G11">
         <v>0</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1148,11 +931,8 @@
       <c r="G12">
         <v>0</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1174,11 +954,8 @@
       <c r="G13">
         <v>0</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1200,11 +977,8 @@
       <c r="G14">
         <v>0</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1226,11 +1000,8 @@
       <c r="G15">
         <v>0</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1252,11 +1023,8 @@
       <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1278,11 +1046,8 @@
       <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1304,11 +1069,8 @@
       <c r="G18">
         <v>0</v>
       </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1330,11 +1092,8 @@
       <c r="G19">
         <v>0</v>
       </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1356,11 +1115,8 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1382,11 +1138,8 @@
       <c r="G21">
         <v>0</v>
       </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1408,11 +1161,8 @@
       <c r="G22">
         <v>0</v>
       </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1434,11 +1184,8 @@
       <c r="G23">
         <v>0</v>
       </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1460,11 +1207,8 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1486,11 +1230,8 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1512,11 +1253,8 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1538,11 +1276,8 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1564,16 +1299,13 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1590,11 +1322,8 @@
       <c r="G29">
         <v>0</v>
       </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1616,16 +1345,13 @@
       <c r="G30">
         <v>0</v>
       </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1642,19 +1368,16 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1668,16 +1391,13 @@
       <c r="G32">
         <v>0</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1694,11 +1414,8 @@
       <c r="G33">
         <v>0</v>
       </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1720,11 +1437,8 @@
       <c r="G34">
         <v>0</v>
       </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1746,16 +1460,13 @@
       <c r="G35">
         <v>0</v>
       </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1772,19 +1483,16 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1798,16 +1506,13 @@
       <c r="G37">
         <v>0</v>
       </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1819,16 +1524,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1850,16 +1552,13 @@
       <c r="G39">
         <v>0</v>
       </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1876,16 +1575,13 @@
       <c r="G40">
         <v>0</v>
       </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1902,11 +1598,8 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1928,11 +1621,8 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1954,19 +1644,16 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1980,11 +1667,8 @@
       <c r="G44">
         <v>0</v>
       </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2001,16 +1685,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
-      <c r="H45">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2032,11 +1713,8 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2058,16 +1736,13 @@
       <c r="G47">
         <v>0</v>
       </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -2084,11 +1759,8 @@
       <c r="G48">
         <v>0</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2110,11 +1782,8 @@
       <c r="G49">
         <v>0</v>
       </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2136,11 +1805,8 @@
       <c r="G50">
         <v>0</v>
       </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2162,11 +1828,8 @@
       <c r="G51">
         <v>0</v>
       </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2188,11 +1851,8 @@
       <c r="G52">
         <v>0</v>
       </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2214,11 +1874,8 @@
       <c r="G53">
         <v>0</v>
       </c>
-      <c r="H53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2240,25 +1897,22 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="H54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2266,11 +1920,8 @@
       <c r="G55">
         <v>0</v>
       </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2292,11 +1943,8 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2318,11 +1966,8 @@
       <c r="G57">
         <v>0</v>
       </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2344,11 +1989,8 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2370,11 +2012,8 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2396,11 +2035,8 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2422,11 +2058,8 @@
       <c r="G61">
         <v>0</v>
       </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2448,11 +2081,8 @@
       <c r="G62">
         <v>0</v>
       </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2474,11 +2104,8 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2500,11 +2127,8 @@
       <c r="G64">
         <v>0</v>
       </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2512,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -2521,16 +2145,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2552,11 +2173,8 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2578,11 +2196,8 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2604,11 +2219,8 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2630,11 +2242,8 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2656,11 +2265,8 @@
       <c r="G70">
         <v>0</v>
       </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2682,11 +2288,8 @@
       <c r="G71">
         <v>0</v>
       </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2708,11 +2311,8 @@
       <c r="G72">
         <v>0</v>
       </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2734,16 +2334,13 @@
       <c r="G73">
         <v>0</v>
       </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
       <c r="B74">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2760,11 +2357,8 @@
       <c r="G74">
         <v>0</v>
       </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2786,11 +2380,8 @@
       <c r="G75">
         <v>0</v>
       </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2812,11 +2403,8 @@
       <c r="G76">
         <v>0</v>
       </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2838,11 +2426,8 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2864,11 +2449,8 @@
       <c r="G78">
         <v>0</v>
       </c>
-      <c r="H78">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2888,1569 +2470,6 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>0</v>
-      </c>
-      <c r="C80">
-        <v>0</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>-1</v>
-      </c>
-      <c r="C81">
-        <v>-1</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>-1</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
-      <c r="C86">
-        <v>0</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>0</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>0</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>0</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
-        <v>0</v>
-      </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92">
-        <v>0</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93">
-        <v>0</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93">
-        <v>0</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95">
-        <v>0</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96">
-        <v>0</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>0</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <v>0</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100">
-        <v>0</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>0</v>
-      </c>
-      <c r="C101">
-        <v>0</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>0</v>
-      </c>
-      <c r="C102">
-        <v>0</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <v>0</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>0</v>
-      </c>
-      <c r="C103">
-        <v>0</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>0</v>
-      </c>
-      <c r="C104">
-        <v>0</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>0</v>
-      </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105">
-        <v>0</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>0</v>
-      </c>
-      <c r="C106">
-        <v>0</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>0</v>
-      </c>
-      <c r="C107">
-        <v>0</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>0</v>
-      </c>
-      <c r="C108">
-        <v>0</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>0</v>
-      </c>
-      <c r="C109">
-        <v>0</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109">
-        <v>0</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>0</v>
-      </c>
-      <c r="C110">
-        <v>0</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110">
-        <v>0</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>0</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>0</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111">
-        <v>0</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>0</v>
-      </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112">
-        <v>0</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>0</v>
-      </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113">
-        <v>0</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>0</v>
-      </c>
-      <c r="C114">
-        <v>0</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114">
-        <v>0</v>
-      </c>
-      <c r="F114">
-        <v>0</v>
-      </c>
-      <c r="G114">
-        <v>0</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>0</v>
-      </c>
-      <c r="C115">
-        <v>0</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115">
-        <v>0</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>0</v>
-      </c>
-      <c r="C116">
-        <v>0</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116">
-        <v>0</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>0</v>
-      </c>
-      <c r="C117">
-        <v>0</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117">
-        <v>0</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118">
-        <v>0</v>
-      </c>
-      <c r="F118">
-        <v>0</v>
-      </c>
-      <c r="G118">
-        <v>0</v>
-      </c>
-      <c r="H118">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <v>0</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>0</v>
-      </c>
-      <c r="C120">
-        <v>0</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120">
-        <v>0</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>0</v>
-      </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-      <c r="E121">
-        <v>0</v>
-      </c>
-      <c r="F121">
-        <v>0</v>
-      </c>
-      <c r="G121">
-        <v>0</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>0</v>
-      </c>
-      <c r="C122">
-        <v>0</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>0</v>
-      </c>
-      <c r="C123">
-        <v>0</v>
-      </c>
-      <c r="D123">
-        <v>0</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>0</v>
-      </c>
-      <c r="C124">
-        <v>0</v>
-      </c>
-      <c r="D124">
-        <v>0</v>
-      </c>
-      <c r="E124">
-        <v>0</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0</v>
-      </c>
-      <c r="H124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>0</v>
-      </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-      <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-      <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>1</v>
-      </c>
-      <c r="C126">
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0</v>
-      </c>
-      <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
-        <v>0</v>
-      </c>
-      <c r="F127">
-        <v>0</v>
-      </c>
-      <c r="G127">
-        <v>0</v>
-      </c>
-      <c r="H127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>0</v>
-      </c>
-      <c r="C128">
-        <v>-1</v>
-      </c>
-      <c r="D128">
-        <v>-1</v>
-      </c>
-      <c r="E128">
-        <v>0</v>
-      </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-      <c r="H128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>-1</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-      <c r="E129">
-        <v>0</v>
-      </c>
-      <c r="F129">
-        <v>0</v>
-      </c>
-      <c r="G129">
-        <v>0</v>
-      </c>
-      <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>0</v>
-      </c>
-      <c r="C130">
-        <v>0</v>
-      </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-      <c r="E130">
-        <v>0</v>
-      </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-      <c r="H130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131">
-        <v>0</v>
-      </c>
-      <c r="F131">
-        <v>0</v>
-      </c>
-      <c r="G131">
-        <v>0</v>
-      </c>
-      <c r="H131">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>0</v>
-      </c>
-      <c r="C132">
-        <v>0</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-      <c r="E132">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132">
-        <v>0</v>
-      </c>
-      <c r="H132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>0</v>
-      </c>
-      <c r="C133">
-        <v>0</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-      <c r="E133">
-        <v>0</v>
-      </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-      <c r="H133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>0</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134">
-        <v>0</v>
-      </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-      <c r="H134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>0</v>
-      </c>
-      <c r="C135">
-        <v>0</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-      <c r="E135">
-        <v>0</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135">
-        <v>0</v>
-      </c>
-      <c r="H135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>0</v>
-      </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136">
-        <v>0</v>
-      </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>0</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137">
-        <v>0</v>
-      </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-      <c r="H137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138">
-        <v>0</v>
-      </c>
-      <c r="F138">
-        <v>0</v>
-      </c>
-      <c r="G138">
-        <v>0</v>
-      </c>
-      <c r="H138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139">
-        <v>0</v>
-      </c>
-      <c r="F139">
-        <v>0</v>
-      </c>
-      <c r="G139">
-        <v>0</v>
-      </c>
-      <c r="H139">
         <v>0</v>
       </c>
     </row>
@@ -4460,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12638102-ABCF-4ED2-9EC3-A5B4186264E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13F2F88B-A3B5-41D5-A21F-31F2E0570488}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4472,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD854613-3DEC-4ED4-95D9-48B9399ECFB9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F60A50-8349-4210-88A9-9AE68CB14667}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
